--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/59.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/59.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1972613942639585</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.572951822196286</v>
+        <v>-1.561505555146187</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01131180255538762</v>
+        <v>0.008820130286368629</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1710414606855397</v>
+        <v>-0.1520021253942865</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1828335283856992</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.587552423565471</v>
+        <v>-1.571459652069293</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02022704685843471</v>
+        <v>0.01866876792834703</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1385820383660769</v>
+        <v>-0.1161034712947818</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1760317736136745</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.652522423825839</v>
+        <v>-1.641648312726333</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03471566458968709</v>
+        <v>-0.03973048951015108</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1457044748899625</v>
+        <v>-0.1231283186331467</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1741503003186751</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.780731003313144</v>
+        <v>-1.776914006943989</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07274396656031171</v>
+        <v>-0.08595470904538838</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1547440667035923</v>
+        <v>-0.1299217851606805</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1674494607668413</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.797842165180803</v>
+        <v>-1.813793274956065</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.08556277828418452</v>
+        <v>-0.1083530011414972</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1512843726749734</v>
+        <v>-0.1274017805474781</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1481276216039648</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.621339531013751</v>
+        <v>-1.636662607159613</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.06116075984665995</v>
+        <v>-0.1004734614202659</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1413271277136253</v>
+        <v>-0.121795124437405</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1130989383779212</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.325377502645143</v>
+        <v>-1.325036727505382</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06672334342133658</v>
+        <v>-0.1117969549789031</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1100057212188629</v>
+        <v>-0.08320647165959738</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.06353778064184978</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8560333330174614</v>
+        <v>-0.8334957402291175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.009917221613915209</v>
+        <v>-0.04437856797535202</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1055968936600997</v>
+        <v>-0.08610896291927585</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.001851370698480442</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3571755178558312</v>
+        <v>-0.3125457796904715</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01780305741163166</v>
+        <v>-0.04167912518232134</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0420427235993418</v>
+        <v>-0.0168710098115012</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.07071030552618596</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1821763002299412</v>
+        <v>0.2468212655417604</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01667583144045991</v>
+        <v>-0.07403308822065698</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03053215004559032</v>
+        <v>0.05745889515368118</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1518339473541908</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8047811376795495</v>
+        <v>0.8879286977622584</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06480618813159235</v>
+        <v>-0.1359974989689011</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1124692894240189</v>
+        <v>0.1320327730826652</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2389984288551054</v>
       </c>
       <c r="E13" t="n">
-        <v>1.447536567920049</v>
+        <v>1.552851039288036</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2101668539837108</v>
+        <v>-0.2901695238620609</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2142878643235965</v>
+        <v>0.2347154844798368</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3309971340195391</v>
       </c>
       <c r="E14" t="n">
-        <v>2.098124317308141</v>
+        <v>2.210554929123528</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4425723512628787</v>
+        <v>-0.5277378038590951</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3271954039327374</v>
+        <v>0.3453422703822131</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4271484514166395</v>
       </c>
       <c r="E15" t="n">
-        <v>2.782621160626414</v>
+        <v>2.904573014106549</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7316393888706287</v>
+        <v>-0.8208374784556174</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4638422999293353</v>
+        <v>0.4852757183040868</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5268996375703651</v>
       </c>
       <c r="E16" t="n">
-        <v>3.448335233770206</v>
+        <v>3.576721677418218</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9689314285118745</v>
+        <v>-1.057622683939804</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6250139878549192</v>
+        <v>0.6468692433541793</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6300201276730059</v>
       </c>
       <c r="E17" t="n">
-        <v>4.089154620491506</v>
+        <v>4.229922298547669</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.238174482296403</v>
+        <v>-1.338240386904412</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7963491172467417</v>
+        <v>0.8182563153770047</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7340509491359993</v>
       </c>
       <c r="E18" t="n">
-        <v>4.718795323413328</v>
+        <v>4.87756820619805</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.457144152356148</v>
+        <v>-1.55440515489</v>
       </c>
       <c r="G18" t="n">
-        <v>0.94950275176842</v>
+        <v>0.9754331427727275</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8371285679436815</v>
       </c>
       <c r="E19" t="n">
-        <v>5.206173030113751</v>
+        <v>5.362836727275931</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.672239374348812</v>
+        <v>-1.775663448752116</v>
       </c>
       <c r="G19" t="n">
-        <v>1.120041427484864</v>
+        <v>1.142677396468289</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9377587940580163</v>
       </c>
       <c r="E20" t="n">
-        <v>5.614242209368319</v>
+        <v>5.78193348449433</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.82582822515753</v>
+        <v>-1.926992008102646</v>
       </c>
       <c r="G20" t="n">
-        <v>1.248646659790737</v>
+        <v>1.270416918257447</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.032138171166616</v>
       </c>
       <c r="E21" t="n">
-        <v>5.925989288494891</v>
+        <v>6.081856531981691</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.03013669411192</v>
+        <v>-2.12938174774817</v>
       </c>
       <c r="G21" t="n">
-        <v>1.369802059595494</v>
+        <v>1.388501406756546</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.1173124668679</v>
       </c>
       <c r="E22" t="n">
-        <v>6.245334157919981</v>
+        <v>6.406564084553053</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.144478952150126</v>
+        <v>-2.235228237579157</v>
       </c>
       <c r="G22" t="n">
-        <v>1.47181266482787</v>
+        <v>1.486764272461105</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.190098762738111</v>
       </c>
       <c r="E23" t="n">
-        <v>6.383457483852358</v>
+        <v>6.534124168162381</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.243006253067064</v>
+        <v>-2.327224146152257</v>
       </c>
       <c r="G23" t="n">
-        <v>1.57736166504493</v>
+        <v>1.589542999024676</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.246852344013207</v>
       </c>
       <c r="E24" t="n">
-        <v>6.53395260007816</v>
+        <v>6.676845203948079</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.312092313329633</v>
+        <v>-2.387435099599372</v>
       </c>
       <c r="G24" t="n">
-        <v>1.588546644920893</v>
+        <v>1.594214687776697</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.287278788403456</v>
       </c>
       <c r="E25" t="n">
-        <v>6.616686193131967</v>
+        <v>6.75559023254851</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.320052128026051</v>
+        <v>-2.393488777139895</v>
       </c>
       <c r="G25" t="n">
-        <v>1.640907965010081</v>
+        <v>1.641181844337188</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.311346466660364</v>
       </c>
       <c r="E26" t="n">
-        <v>6.638044058588895</v>
+        <v>6.763682264851116</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.332154761049732</v>
+        <v>-2.408275899774954</v>
       </c>
       <c r="G26" t="n">
-        <v>1.690053564034453</v>
+        <v>1.679159777695931</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.318899631431752</v>
       </c>
       <c r="E27" t="n">
-        <v>6.596061820585564</v>
+        <v>6.70805642910435</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.2674460479635</v>
+        <v>-2.326098722480527</v>
       </c>
       <c r="G27" t="n">
-        <v>1.648981109083233</v>
+        <v>1.636059986116475</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.312132554184359</v>
       </c>
       <c r="E28" t="n">
-        <v>6.501888256558144</v>
+        <v>6.598575529122281</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.231802384961646</v>
+        <v>-2.273301399094738</v>
       </c>
       <c r="G28" t="n">
-        <v>1.615399411130283</v>
+        <v>1.592492710857994</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.292348793481156</v>
       </c>
       <c r="E29" t="n">
-        <v>6.371729467379547</v>
+        <v>6.454614166268999</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.153609050063231</v>
+        <v>-2.190119210591361</v>
       </c>
       <c r="G29" t="n">
-        <v>1.574341122351154</v>
+        <v>1.546534500554256</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.261382323785355</v>
       </c>
       <c r="E30" t="n">
-        <v>6.2169671853159</v>
+        <v>6.288086091273628</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.126677582897776</v>
+        <v>-2.151404636283849</v>
       </c>
       <c r="G30" t="n">
-        <v>1.50448615374783</v>
+        <v>1.477123405343138</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.222637441634505</v>
       </c>
       <c r="E31" t="n">
-        <v>5.969496751026763</v>
+        <v>6.023177099139601</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.992884383568096</v>
+        <v>-1.988705362801043</v>
       </c>
       <c r="G31" t="n">
-        <v>1.429496734770822</v>
+        <v>1.398686884490483</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.177910254656785</v>
       </c>
       <c r="E32" t="n">
-        <v>5.741920344411746</v>
+        <v>5.779164784859963</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.887785552819728</v>
+        <v>-1.873092871331947</v>
       </c>
       <c r="G32" t="n">
-        <v>1.363664959041542</v>
+        <v>1.323826535081422</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.129491960331318</v>
       </c>
       <c r="E33" t="n">
-        <v>5.419526599948696</v>
+        <v>5.438561213182585</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.836527620134571</v>
+        <v>-1.812840993387678</v>
       </c>
       <c r="G33" t="n">
-        <v>1.292405965382017</v>
+        <v>1.24825158099129</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.07980924894169</v>
       </c>
       <c r="E34" t="n">
-        <v>5.144433704099853</v>
+        <v>5.148497821471052</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.759037871783378</v>
+        <v>-1.732765918629748</v>
       </c>
       <c r="G34" t="n">
-        <v>1.18453686098016</v>
+        <v>1.13588865199812</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.028835055193809</v>
       </c>
       <c r="E35" t="n">
-        <v>4.775582785271614</v>
+        <v>4.759161043779084</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.715982939748879</v>
+        <v>-1.686342585675666</v>
       </c>
       <c r="G35" t="n">
-        <v>1.106671709068536</v>
+        <v>1.061291163782316</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.977966143101126</v>
       </c>
       <c r="E36" t="n">
-        <v>4.336544779805456</v>
+        <v>4.305198189004753</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.65272940734029</v>
+        <v>-1.613999879851126</v>
       </c>
       <c r="G36" t="n">
-        <v>1.048042644838328</v>
+        <v>0.9991882393513974</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9276316921699297</v>
       </c>
       <c r="E37" t="n">
-        <v>3.990180298144118</v>
+        <v>3.946731074319734</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.616671777309534</v>
+        <v>-1.579102301912768</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9654554355628024</v>
+        <v>0.918387541778548</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.87673767243908</v>
       </c>
       <c r="E38" t="n">
-        <v>3.667054634789664</v>
+        <v>3.613286141606033</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.531854969948685</v>
+        <v>-1.490199340913023</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8775212833322182</v>
+        <v>0.8275949708236817</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.82579685275557</v>
       </c>
       <c r="E39" t="n">
-        <v>3.266048079332373</v>
+        <v>3.196695222828744</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.506994911946862</v>
+        <v>-1.465970464578842</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8055681472401999</v>
+        <v>0.7599137226268734</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7745012910141329</v>
       </c>
       <c r="E40" t="n">
-        <v>2.882291199425416</v>
+        <v>2.79828737294072</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.496917254522735</v>
+        <v>-1.460924946285513</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7363963029355198</v>
+        <v>0.6899076481879041</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7216304659504201</v>
       </c>
       <c r="E41" t="n">
-        <v>2.537250467845092</v>
+        <v>2.449582324846008</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.470284850990327</v>
+        <v>-1.430952474177705</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6854657662275935</v>
+        <v>0.6383459298123361</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6683133183329738</v>
       </c>
       <c r="E42" t="n">
-        <v>2.175021447460165</v>
+        <v>2.080317438988867</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.436556769259096</v>
+        <v>-1.399460286608281</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6185982859164977</v>
+        <v>0.5725204501595413</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6142950883031348</v>
       </c>
       <c r="E43" t="n">
-        <v>1.923578188908865</v>
+        <v>1.836486136908177</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.402310048227396</v>
+        <v>-1.372045595572587</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5428234313979613</v>
+        <v>0.4975168650104423</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5596719901818132</v>
       </c>
       <c r="E44" t="n">
-        <v>1.689386179927021</v>
+        <v>1.612566176711941</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.397300732373857</v>
+        <v>-1.370050526336339</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4665763711430346</v>
+        <v>0.4255763210713943</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5060263111318256</v>
       </c>
       <c r="E45" t="n">
-        <v>1.469058131365594</v>
+        <v>1.392809497091546</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.324987932912621</v>
+        <v>-1.299134668845257</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4131557361852106</v>
+        <v>0.370772123305947</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4538502494084217</v>
       </c>
       <c r="E46" t="n">
-        <v>1.245297147100609</v>
+        <v>1.169317670096304</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.261251176633792</v>
+        <v>-1.236908970922877</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3648396452377647</v>
+        <v>0.3284798035357188</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4041743301170289</v>
       </c>
       <c r="E47" t="n">
-        <v>1.110417874577232</v>
+        <v>1.040204029614251</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.212704491885076</v>
+        <v>-1.187482409485354</v>
       </c>
       <c r="G47" t="n">
-        <v>0.293801014255222</v>
+        <v>0.2550785698521038</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3583530690101709</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9214458609312353</v>
+        <v>0.8626656908653824</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.134843275021256</v>
+        <v>-1.11217110359804</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2209207809007576</v>
+        <v>0.1892688303905221</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3162107940001841</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7591361571809508</v>
+        <v>0.7003213586944294</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.06848420288634</v>
+        <v>-1.048755447219957</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1768687077529153</v>
+        <v>0.1438316204159351</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2780955330185728</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6726768608670254</v>
+        <v>0.6185180109413113</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.003554340113565</v>
+        <v>-0.9882643183692502</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1491880074857214</v>
+        <v>0.1223210751042399</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2438972430726946</v>
       </c>
       <c r="E51" t="n">
-        <v>0.548208150811931</v>
+        <v>0.4974334419970133</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.980350937236911</v>
+        <v>-0.9677359609892467</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1268841565368906</v>
+        <v>0.1071050322586262</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2127076999127514</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3855442927593539</v>
+        <v>0.3452273669863581</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9643203394960242</v>
+        <v>-0.9612014206071668</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07590639925532525</v>
+        <v>0.05330348467344737</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1845024782939093</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3267200501581046</v>
+        <v>0.2838721016380573</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9539381093719249</v>
+        <v>-0.9401119254104197</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06948282722129713</v>
+        <v>0.05470278767228368</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.158848584667772</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1948156737739857</v>
+        <v>0.1654098485498463</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9083820609536797</v>
+        <v>-0.9022504694666529</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02766900926394436</v>
+        <v>0.01435123347861925</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1350371723456515</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1158628746495432</v>
+        <v>0.1022287210208366</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9079547147622465</v>
+        <v>-0.9098262234974731</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01147864858224549</v>
+        <v>0.001195581662788098</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1132724390757747</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03293410322469516</v>
+        <v>0.02151774253790128</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9086307559748452</v>
+        <v>-0.9165598772983974</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.02435074867592206</v>
+        <v>-0.03422614464296258</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.09282868221545362</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07093069653257332</v>
+        <v>-0.07784378851332593</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9272844565813797</v>
+        <v>-0.9419676939544331</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.06453230880448602</v>
+        <v>-0.07336727813234678</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.07339015058231103</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1182315451467803</v>
+        <v>-0.1196481623559509</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9192530240149429</v>
+        <v>-0.9385261011457092</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09280326624216767</v>
+        <v>-0.1003050413742868</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.054890940155721</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1970316644164566</v>
+        <v>-0.1958432799798746</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.92983830260569</v>
+        <v>-0.9480024832655</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1107376401102677</v>
+        <v>-0.1158547762736162</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.03711416440269989</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2832532838430657</v>
+        <v>-0.2778244918936996</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9507373414887599</v>
+        <v>-0.9789689484484091</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1232479440863656</v>
+        <v>-0.1258671119042099</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.02003738789650348</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3684014222289477</v>
+        <v>-0.358503989994209</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9323402059989975</v>
+        <v>-0.9604805198496111</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1579692318831374</v>
+        <v>-0.16305488766406</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.003648104706927656</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4887666644348113</v>
+        <v>-0.4811137834670474</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9506326692171935</v>
+        <v>-0.9898564387104459</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1794152424108593</v>
+        <v>-0.1839106410212941</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.01192823350785394</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5376210699217421</v>
+        <v>-0.529889487997913</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9680145623737169</v>
+        <v>-1.012132744324654</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2106406337392224</v>
+        <v>-0.2174466924197265</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.02648957946274539</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6776127565511039</v>
+        <v>-0.6725947835923973</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.002504469359658</v>
+        <v>-1.050685194662672</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.256206913281756</v>
+        <v>-0.2649930880168564</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.03988713932980693</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8341363660114869</v>
+        <v>-0.8353192413811443</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.05691594935434</v>
+        <v>-1.112507943689999</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3134303784366425</v>
+        <v>-0.3254291261983177</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.05124963507707563</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9388031285110581</v>
+        <v>-0.9434700952057147</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.083973338049499</v>
+        <v>-1.139821110492369</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3475346507378645</v>
+        <v>-0.3601630061480599</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.05963331551871205</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.012015479900117</v>
+        <v>-1.027099305139541</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.134120013235018</v>
+        <v>-1.196104099222278</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3978072474530872</v>
+        <v>-0.4145815692287886</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.06347748876081842</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.093777116146521</v>
+        <v>-1.120885660463122</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.181273691061383</v>
+        <v>-1.253704541956716</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4263961567532715</v>
+        <v>-0.4409857399886076</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.06173538731622793</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.226304017093114</v>
+        <v>-1.2728052639937</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.235267268979361</v>
+        <v>-1.309186354953884</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4555517129371242</v>
+        <v>-0.4728328688698845</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.05338543716650331</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.274716123206959</v>
+        <v>-1.327777094795566</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.310713153501545</v>
+        <v>-1.391971890638693</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4852676199281599</v>
+        <v>-0.5081837643151765</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.03850119100552978</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.323060546498589</v>
+        <v>-1.383961707330394</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.334889300195163</v>
+        <v>-1.423656108540915</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5333948285810497</v>
+        <v>-0.561554030661119</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.01762598601839153</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.389166988564535</v>
+        <v>-1.457208687140122</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.383506815804338</v>
+        <v>-1.471904516666146</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5166441170921677</v>
+        <v>-0.5486092974075422</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.008831077942394796</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.409365588938627</v>
+        <v>-1.49570211176109</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.393082361128771</v>
+        <v>-1.478439057048225</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5389558381366051</v>
+        <v>-0.5753550303166834</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.03987037699671171</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.446743821012154</v>
+        <v>-1.541152700898209</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.426492490997499</v>
+        <v>-1.512693648175532</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5461207731767658</v>
+        <v>-0.5819139679951434</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.07468383918562038</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.431204317237113</v>
+        <v>-1.533729626722155</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.423946515068796</v>
+        <v>-1.504182139777098</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.563611273652659</v>
+        <v>-0.601735590789683</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.112527954377958</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.346836892335396</v>
+        <v>-1.449803714183963</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.474757426323503</v>
+        <v>-1.565221814291578</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5444538869273083</v>
+        <v>-0.5837445522332161</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1524318947708971</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.297823510917214</v>
+        <v>-1.400283498608722</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.484042565120056</v>
+        <v>-1.575097997268179</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5215393165594129</v>
+        <v>-0.5591394853290438</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1944380450306845</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.130323479114441</v>
+        <v>-1.229079799813528</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.441721913005644</v>
+        <v>-1.523955754988438</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4813577564308489</v>
+        <v>-0.5199889077249318</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2388216236980442</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.01220042714687</v>
+        <v>-1.109158430999871</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.431269639030647</v>
+        <v>-1.503354992728855</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4777438085283426</v>
+        <v>-0.5215456126358982</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2852210291580732</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8375354603039358</v>
+        <v>-0.9313076494554242</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.405053563555823</v>
+        <v>-1.47090580153368</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4632801468227106</v>
+        <v>-0.5086229156500195</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.334109725776567</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.6914893091244908</v>
+        <v>-0.7860548039131148</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.385248467962057</v>
+        <v>-1.440446957517391</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4361865556877618</v>
+        <v>-0.4777453825474639</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3849536448630794</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5007134695654836</v>
+        <v>-0.5836910355830919</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.387338765355145</v>
+        <v>-1.435793369985265</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3958963882398281</v>
+        <v>-0.4327913964431163</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.4366184166407623</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.2978617553078574</v>
+        <v>-0.3781162682456156</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.319881814883122</v>
+        <v>-1.351598300177331</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3157158542007711</v>
+        <v>-0.349955492146425</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.4884216063410222</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1173532424770945</v>
+        <v>-0.1910000231436324</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.306686812589258</v>
+        <v>-1.329188989947373</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2941077197035553</v>
+        <v>-0.3281474572208039</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.5388201398640468</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06884377545804905</v>
+        <v>0.0003330191843153211</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.195653142744026</v>
+        <v>-1.209389607615617</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2583995219177279</v>
+        <v>-0.2977468519120025</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.5857454719883223</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3175592588721347</v>
+        <v>0.259570820424296</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.102794671692452</v>
+        <v>-1.108280128330185</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1936648375159944</v>
+        <v>-0.232179511395101</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.6273382080238871</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5390017129714432</v>
+        <v>0.4896326032318472</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.988343806334876</v>
+        <v>-0.9831416731389772</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1352750241922241</v>
+        <v>-0.1708399862380132</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6607254808100733</v>
       </c>
       <c r="E88" t="n">
-        <v>0.709401875005213</v>
+        <v>0.6619310323259057</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8444367471412786</v>
+        <v>-0.8352381793963974</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1114396526383678</v>
+        <v>-0.1464017653606987</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.6832072331755281</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8768806575498489</v>
+        <v>0.8408419157485483</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7275469391552469</v>
+        <v>-0.717737651991301</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.06233497811115026</v>
+        <v>-0.09245540801636022</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.6915512589105728</v>
       </c>
       <c r="E90" t="n">
-        <v>1.004772859193772</v>
+        <v>0.9757573907117154</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.558889216288757</v>
+        <v>-0.5404700445312963</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04401024750096766</v>
+        <v>-0.0740787347751747</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.6827547996419387</v>
       </c>
       <c r="E91" t="n">
-        <v>1.118473704440049</v>
+        <v>1.09403076150537</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3660797440250292</v>
+        <v>-0.3433792402576307</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.06497618219669282</v>
+        <v>-0.09362805226172924</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.6546451970609893</v>
       </c>
       <c r="E92" t="n">
-        <v>1.171785732078503</v>
+        <v>1.153212306447155</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.224270065310565</v>
+        <v>-0.2045775120839721</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02805126763009998</v>
+        <v>-0.05570993162959566</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.6076656902225631</v>
       </c>
       <c r="E93" t="n">
-        <v>1.206735252647864</v>
+        <v>1.187727397739037</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1235092312605015</v>
+        <v>-0.1037883456897252</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03081209716886139</v>
+        <v>-0.05496384656609914</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.5438320468738201</v>
       </c>
       <c r="E94" t="n">
-        <v>1.179167881757403</v>
+        <v>1.168134007717085</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01680670330784832</v>
+        <v>0.04391131257664616</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0008474951566601948</v>
+        <v>-0.0207619850793565</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.4690644651156514</v>
       </c>
       <c r="E95" t="n">
-        <v>1.179400836587356</v>
+        <v>1.177049252020133</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09443575235127694</v>
+        <v>0.1228405014142692</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03775509551291872</v>
+        <v>-0.055565121870436</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3900595860586988</v>
       </c>
       <c r="E96" t="n">
-        <v>1.098419126815557</v>
+        <v>1.097328331564495</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1705364288279226</v>
+        <v>0.200763892033381</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07276128077064602</v>
+        <v>-0.08592165464384106</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.3147720562313321</v>
       </c>
       <c r="E97" t="n">
-        <v>1.044354718037121</v>
+        <v>1.04576976122717</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2153519012495958</v>
+        <v>0.2474492991711594</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04147607671567355</v>
+        <v>-0.05139397119898918</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.2484065986532542</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9342993010757766</v>
+        <v>0.9310741358962316</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1996164320939528</v>
+        <v>0.2295952002782457</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09960460286530795</v>
+        <v>-0.1094548145264077</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1940885162618116</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8924382625447849</v>
+        <v>0.8951613156246351</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1905170275537135</v>
+        <v>0.2137715860518099</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0880544505532035</v>
+        <v>-0.0967587762939963</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1461774115266028</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8404326707770101</v>
+        <v>0.8408497858441548</v>
       </c>
       <c r="F100" t="n">
-        <v>0.181416048994353</v>
+        <v>0.2048390275384285</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09067204435192655</v>
+        <v>-0.09885694378269012</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1044312560852025</v>
       </c>
       <c r="E101" t="n">
-        <v>0.778704362896961</v>
+        <v>0.7829762507921711</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1658112234257779</v>
+        <v>0.185096105699954</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.07989630944750203</v>
+        <v>-0.08618136779885568</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.05773858144205356</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7663483127947507</v>
+        <v>0.7708578775772771</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1458196065661379</v>
+        <v>0.1588430407757798</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06796839254628542</v>
+        <v>-0.07079847892638406</v>
       </c>
     </row>
   </sheetData>
